--- a/Data/Ionic_Radius.xlsx
+++ b/Data/Ionic_Radius.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360MoveData\Users\Paul_George\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Focalors\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329C04D9-A71F-4628-8D8B-C1C99AA80DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19585A69-ECAF-44F5-91D2-2460305DF9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Ion</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,11 +103,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N02</t>
+    <t>NO2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BCl4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlF4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlCl4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClO4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICl4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,18 +453,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -460,7 +480,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -468,7 +488,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -476,87 +496,87 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -564,44 +584,84 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B23">
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B25">
         <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
